--- a/src/test/data/anno_IterateTables.xlsx
+++ b/src/test/data/anno_IterateTables.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="21">
   <si>
     <t>アノテーション「@XlsIterateTables」のテスタ</t>
     <phoneticPr fontId="2"/>
@@ -169,6 +169,13 @@
     <t>クラス情報</t>
     <rPh sb="3" eb="5">
       <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>番号</t>
+    <rPh sb="0" eb="2">
+      <t>バンゴウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -279,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -289,10 +296,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -599,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -621,100 +629,116 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
+      <c r="A5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3">
-        <v>36617</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>36617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C9" s="3">
         <v>36618</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B13" s="4" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="3">
-        <v>36251</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3">
-        <v>36252</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3">
+        <v>36251</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3">
+        <v>36252</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="2">
         <v>3</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D18" s="3">
         <v>36253</v>
       </c>
     </row>
@@ -726,10 +750,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D16"/>
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -748,100 +772,116 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
+      <c r="A5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3">
-        <v>36617</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>36617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C9" s="3">
         <v>36618</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B13" s="4" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="3">
-        <v>36251</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3">
-        <v>36252</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3">
+        <v>36251</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3">
+        <v>36252</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="2">
         <v>3</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D18" s="3">
         <v>36253</v>
       </c>
     </row>
@@ -853,10 +893,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -872,216 +912,232 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="A4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="6">
-        <v>36617</v>
-      </c>
-      <c r="D6" s="2">
-        <v>90</v>
-      </c>
-      <c r="E6" s="2">
-        <v>70</v>
-      </c>
-      <c r="F6" s="8">
-        <f>SUM(D6:E6)</f>
-        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="6">
-        <v>36618</v>
+        <v>36617</v>
       </c>
       <c r="D7" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E7" s="2">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F7" s="8">
         <f>SUM(D7:E7)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6">
+        <v>36618</v>
+      </c>
+      <c r="D8" s="2">
+        <v>80</v>
+      </c>
+      <c r="E8" s="2">
+        <v>90</v>
+      </c>
+      <c r="F8" s="8">
+        <f>SUM(D8:E8)</f>
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C8" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="8">
-        <f>AVERAGE(D6:D7)</f>
+      <c r="D9" s="8">
+        <f>AVERAGE(D7:D8)</f>
         <v>85</v>
       </c>
-      <c r="E8" s="8">
-        <f>AVERAGE(E6:E7)</f>
+      <c r="E9" s="8">
+        <f>AVERAGE(E7:E8)</f>
         <v>80</v>
       </c>
-      <c r="F8" s="8">
-        <f>AVERAGE(F6:F7)</f>
+      <c r="F9" s="8">
+        <f>AVERAGE(F7:F8)</f>
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="1" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B14" s="4" t="s">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="3">
-        <v>36251</v>
-      </c>
-      <c r="E15" s="2">
-        <v>90</v>
-      </c>
-      <c r="F15" s="2">
-        <v>70</v>
-      </c>
-      <c r="G15" s="8">
-        <f>SUM(E15:F15)</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="3">
-        <v>36252</v>
-      </c>
-      <c r="E16" s="2">
-        <v>80</v>
-      </c>
-      <c r="F16" s="2">
-        <v>90</v>
-      </c>
-      <c r="G16" s="8">
-        <f>SUM(E16:F16)</f>
-        <v>170</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="3">
-        <v>36253</v>
+        <v>36251</v>
       </c>
       <c r="E17" s="2">
+        <v>90</v>
+      </c>
+      <c r="F17" s="2">
         <v>70</v>
-      </c>
-      <c r="F17" s="2">
-        <v>60</v>
       </c>
       <c r="G17" s="8">
         <f>SUM(E17:F17)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="3">
+        <v>36252</v>
+      </c>
+      <c r="E18" s="2">
+        <v>80</v>
+      </c>
+      <c r="F18" s="2">
+        <v>90</v>
+      </c>
+      <c r="G18" s="8">
+        <f>SUM(E18:F18)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B19" s="2">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="3">
+        <v>36253</v>
+      </c>
+      <c r="E19" s="2">
+        <v>70</v>
+      </c>
+      <c r="F19" s="2">
+        <v>60</v>
+      </c>
+      <c r="G19" s="8">
+        <f>SUM(E19:F19)</f>
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E18" s="8">
-        <f>AVERAGE(E15:E17)</f>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E20" s="8">
+        <f>AVERAGE(E17:E19)</f>
         <v>80</v>
       </c>
-      <c r="F18" s="10">
-        <f>AVERAGE(F15:F17)</f>
+      <c r="F20" s="9">
+        <f>AVERAGE(F17:F19)</f>
         <v>73.333333333333329</v>
       </c>
-      <c r="G18" s="10">
-        <f>AVERAGE(G15:G17)</f>
+      <c r="G20" s="9">
+        <f>AVERAGE(G17:G19)</f>
         <v>153.33333333333334</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="E15:G15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/data/anno_IterateTables.xlsx
+++ b/src/test/data/anno_IterateTables.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="通常の表" sheetId="1" r:id="rId1"/>
     <sheet name="見出しセルがない" sheetId="4" r:id="rId2"/>
     <sheet name="連結した表" sheetId="3" r:id="rId3"/>
+    <sheet name="メソッドにアノテーションを付与" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="21">
   <si>
     <t>アノテーション「@XlsIterateTables」のテスタ</t>
     <phoneticPr fontId="2"/>
@@ -297,10 +298,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -629,7 +630,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="2">
@@ -683,7 +684,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="2">
@@ -772,7 +773,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="2">
@@ -826,7 +827,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="2">
@@ -895,7 +896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -912,7 +913,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="2">
@@ -926,11 +927,11 @@
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
@@ -1017,7 +1018,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="2">
@@ -1031,11 +1032,11 @@
       <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
@@ -1142,4 +1143,147 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>36617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>36618</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3">
+        <v>36251</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3">
+        <v>36252</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3">
+        <v>36253</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/data/anno_IterateTables.xlsx
+++ b/src/test/data/anno_IterateTables.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="通常の表" sheetId="1" r:id="rId1"/>
     <sheet name="見出しセルがない" sheetId="4" r:id="rId2"/>
     <sheet name="連結した表" sheetId="3" r:id="rId3"/>
     <sheet name="メソッドにアノテーションを付与" sheetId="5" r:id="rId4"/>
+    <sheet name="正規表現で一致" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="25">
   <si>
     <t>アノテーション「@XlsIterateTables」のテスタ</t>
     <phoneticPr fontId="2"/>
@@ -177,6 +178,40 @@
     <t>番号</t>
     <rPh sb="0" eb="2">
       <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クラス情報(1)</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クラス情報(2)</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>氏名（必須）</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クラス名（必須）</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒッス</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1149,9 +1184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1286,4 +1319,147 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3">
+        <v>36617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3">
+        <v>36618</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="3">
+        <v>36251</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="3">
+        <v>36252</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C18" s="2">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3">
+        <v>36253</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/data/anno_IterateTables.xlsx
+++ b/src/test/data/anno_IterateTables.xlsx
@@ -4,21 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="1650" yWindow="1110" windowWidth="14805" windowHeight="8535" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="通常の表" sheetId="1" r:id="rId1"/>
-    <sheet name="見出しセルがない" sheetId="4" r:id="rId2"/>
-    <sheet name="連結した表" sheetId="3" r:id="rId3"/>
-    <sheet name="メソッドにアノテーションを付与" sheetId="5" r:id="rId4"/>
-    <sheet name="正規表現で一致" sheetId="6" r:id="rId5"/>
+    <sheet name="縦方向の表" sheetId="8" r:id="rId2"/>
+    <sheet name="横と縦方向の表" sheetId="9" r:id="rId3"/>
+    <sheet name="見出しセルがない" sheetId="4" r:id="rId4"/>
+    <sheet name="連結した表" sheetId="3" r:id="rId5"/>
+    <sheet name="メソッドにアノテーションを付与" sheetId="5" r:id="rId6"/>
+    <sheet name="正規表現で一致" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="28">
   <si>
     <t>アノテーション「@XlsIterateTables」のテスタ</t>
     <phoneticPr fontId="2"/>
@@ -212,6 +215,33 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※このパターンは対応していないため例外が発生する</t>
+    <rPh sb="8" eb="10">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出席</t>
+    <rPh sb="0" eb="2">
+      <t>シュッセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>欠席</t>
+    <rPh sb="0" eb="2">
+      <t>ケッセキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -223,7 +253,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +283,13 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -322,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -337,6 +374,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -646,7 +684,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+      <selection activeCell="B15" sqref="B15:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -785,6 +823,333 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>36617</v>
+      </c>
+      <c r="C9" s="3">
+        <v>36618</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3">
+        <v>36251</v>
+      </c>
+      <c r="D17" s="3">
+        <v>36252</v>
+      </c>
+      <c r="E17" s="3">
+        <v>36253</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C2" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>36617</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>36618</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2">
+        <f>SUM(F7:F8)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3">
+        <v>36251</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3">
+        <v>36252</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="2">
+        <f>SUM(G15:G16)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3">
+        <v>36253</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -927,7 +1292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
@@ -1180,7 +1545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -1321,11 +1686,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1462,4 +1827,17 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/data/anno_IterateTables.xlsx
+++ b/src/test/data/anno_IterateTables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="1110" windowWidth="14805" windowHeight="8535" activeTab="2"/>
+    <workbookView xWindow="1650" yWindow="1110" windowWidth="14805" windowHeight="8535" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="通常の表" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,14 @@
     <sheet name="連結した表" sheetId="3" r:id="rId5"/>
     <sheet name="メソッドにアノテーションを付与" sheetId="5" r:id="rId6"/>
     <sheet name="正規表現で一致" sheetId="6" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId8"/>
+    <sheet name="配列カラムの設定" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="42">
   <si>
     <t>アノテーション「@XlsIterateTables」のテスタ</t>
     <phoneticPr fontId="2"/>
@@ -242,6 +242,89 @@
     <t>欠席</t>
     <rPh sb="0" eb="2">
       <t>ケッセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電話番号</t>
+    <rPh sb="0" eb="2">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">090 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2222 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1111</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2222</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1111</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>090</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3333</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クラス名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1年</t>
+    <rPh sb="1" eb="2">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2組</t>
+    <rPh sb="1" eb="2">
+      <t>クミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クラス名（必須）</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2年</t>
+    <rPh sb="1" eb="2">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3組</t>
+    <rPh sb="1" eb="2">
+      <t>クミ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -250,10 +333,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,6 +376,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -319,7 +420,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -355,11 +456,104 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -371,10 +565,30 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -967,7 +1181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -982,7 +1196,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1327,11 +1541,11 @@
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
@@ -1432,11 +1646,11 @@
       <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
@@ -1690,7 +1904,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:E18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1831,12 +2047,190 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="14"/>
+    <col min="2" max="2" width="12" style="14" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B4" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B8" s="16">
+        <v>1</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="16">
+        <v>2</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C12" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C15" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C16" s="16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C17" s="16">
+        <v>2</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C18" s="16">
+        <v>3</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="E15:G15"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/data/anno_IterateTables.xlsx
+++ b/src/test/data/anno_IterateTables.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F83A27B-5AC5-4983-82B0-DE26A47136E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="1110" windowWidth="14805" windowHeight="8535" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="34740" yWindow="2145" windowWidth="21615" windowHeight="11655" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="通常の表" sheetId="1" r:id="rId1"/>
@@ -15,13 +16,121 @@
     <sheet name="メソッドにアノテーションを付与" sheetId="5" r:id="rId6"/>
     <sheet name="正規表現で一致" sheetId="6" r:id="rId7"/>
     <sheet name="配列カラムの設定" sheetId="7" r:id="rId8"/>
+    <sheet name="コメント情報" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作成者</author>
+  </authors>
+  <commentList>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{A0926B98-A054-4784-85A3-A29607A124D7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>コメント1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{5B7724B1-5E34-47CE-BD30-65A3EB7DDAEE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>コメント3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{D27114D5-C0B4-4465-8394-B261607A1D74}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>コメント5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{CC140175-5595-4C5F-BF38-A2B9CF9844F0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>コメント6</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{812222DF-0843-4667-A522-0FBEE35E7886}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>コメント2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{355F36D0-6B6E-423D-92A3-2F10E5538154}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>コメント4</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="42">
   <si>
     <t>アノテーション「@XlsIterateTables」のテスタ</t>
     <phoneticPr fontId="2"/>
@@ -332,12 +441,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,6 +502,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -566,13 +683,20 @@
     <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="177" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -582,13 +706,6 @@
     <xf numFmtId="177" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -604,12 +721,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -651,7 +771,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -684,9 +804,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -719,6 +856,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -894,29 +1048,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:D18"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="10" t="s">
         <v>20</v>
       </c>
@@ -924,7 +1078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -932,7 +1086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -943,7 +1097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -954,7 +1108,7 @@
         <v>36617</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -965,12 +1119,12 @@
         <v>36618</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -978,7 +1132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
@@ -986,7 +1140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -997,7 +1151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="B16" s="2">
         <v>1</v>
       </c>
@@ -1008,7 +1162,7 @@
         <v>36251</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4">
       <c r="B17" s="2">
         <v>2</v>
       </c>
@@ -1019,7 +1173,7 @@
         <v>36252</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:4">
       <c r="B18" s="2">
         <v>3</v>
       </c>
@@ -1037,29 +1191,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="10" t="s">
         <v>20</v>
       </c>
@@ -1067,7 +1221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -1075,7 +1229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1086,7 +1240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1097,7 +1251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1108,12 +1262,12 @@
         <v>36618</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -1121,7 +1275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
@@ -1129,7 +1283,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -1143,7 +1297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="B16" s="4" t="s">
         <v>5</v>
       </c>
@@ -1157,7 +1311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:5">
       <c r="B17" s="4" t="s">
         <v>6</v>
       </c>
@@ -1178,34 +1332,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="C2" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="10" t="s">
         <v>20</v>
       </c>
@@ -1213,7 +1367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -1221,7 +1375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1238,7 +1392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -1255,7 +1409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -1273,12 +1427,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -1286,7 +1440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
@@ -1294,7 +1448,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -1311,7 +1465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="B16" s="2">
         <v>1</v>
       </c>
@@ -1328,7 +1482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7">
       <c r="B17" s="2">
         <v>2</v>
       </c>
@@ -1346,7 +1500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7">
       <c r="B18" s="2">
         <v>3</v>
       </c>
@@ -1364,29 +1518,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="10" t="s">
         <v>20</v>
       </c>
@@ -1394,7 +1548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -1402,7 +1556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1413,7 +1567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -1424,7 +1578,7 @@
         <v>36617</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -1435,12 +1589,12 @@
         <v>36618</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -1448,7 +1602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
@@ -1456,7 +1610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -1467,7 +1621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="B16" s="2">
         <v>1</v>
       </c>
@@ -1478,7 +1632,7 @@
         <v>36251</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4">
       <c r="B17" s="2">
         <v>2</v>
       </c>
@@ -1489,7 +1643,7 @@
         <v>36252</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:4">
       <c r="B18" s="2">
         <v>3</v>
       </c>
@@ -1507,26 +1661,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="10" t="s">
         <v>20</v>
       </c>
@@ -1534,20 +1688,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1567,7 +1721,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -1588,7 +1742,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -1609,7 +1763,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="C9" t="s">
         <v>18</v>
       </c>
@@ -1626,12 +1780,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="B14" s="10" t="s">
         <v>20</v>
       </c>
@@ -1639,20 +1793,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="B15" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
@@ -1672,7 +1826,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7">
       <c r="B17" s="2">
         <v>1</v>
       </c>
@@ -1693,7 +1847,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7">
       <c r="B18" s="2">
         <v>2</v>
       </c>
@@ -1714,7 +1868,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7">
       <c r="B19" s="2">
         <v>3</v>
       </c>
@@ -1735,7 +1889,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7">
       <c r="E20" s="8">
         <f>AVERAGE(E17:E19)</f>
         <v>80</v>
@@ -1760,27 +1914,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="10" t="s">
         <v>20</v>
       </c>
@@ -1788,7 +1942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -1796,7 +1950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1807,7 +1961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -1818,7 +1972,7 @@
         <v>36617</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -1829,12 +1983,12 @@
         <v>36618</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -1842,7 +1996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
@@ -1850,7 +2004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -1861,7 +2015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="B16" s="2">
         <v>1</v>
       </c>
@@ -1872,7 +2026,7 @@
         <v>36251</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4">
       <c r="B17" s="2">
         <v>2</v>
       </c>
@@ -1883,7 +2037,7 @@
         <v>36252</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:4">
       <c r="B18" s="2">
         <v>3</v>
       </c>
@@ -1901,31 +2055,31 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="B5" s="10" t="s">
         <v>20</v>
       </c>
@@ -1933,7 +2087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
@@ -1941,7 +2095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1952,7 +2106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="B8" s="2">
         <v>1</v>
       </c>
@@ -1963,7 +2117,7 @@
         <v>36617</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1974,12 +2128,12 @@
         <v>36618</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="C13" s="10" t="s">
         <v>20</v>
       </c>
@@ -1987,7 +2141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="C14" s="4" t="s">
         <v>2</v>
       </c>
@@ -1995,7 +2149,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="C15" s="4" t="s">
         <v>4</v>
       </c>
@@ -2006,7 +2160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="C16" s="2">
         <v>1</v>
       </c>
@@ -2017,7 +2171,7 @@
         <v>36251</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:5">
       <c r="C17" s="2">
         <v>2</v>
       </c>
@@ -2028,7 +2182,7 @@
         <v>36252</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:5">
       <c r="C18" s="2">
         <v>3</v>
       </c>
@@ -2046,183 +2200,183 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="9" style="14"/>
-    <col min="2" max="2" width="12" style="14" customWidth="1"/>
-    <col min="3" max="3" width="10.75" style="14" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="9" style="13"/>
+    <col min="2" max="2" width="12" style="13" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="13" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="1:7">
+      <c r="B4" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="15" t="s">
+    <row r="5" spans="1:7">
+      <c r="B5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B6" s="15" t="s">
+      <c r="C5" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="26"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B7" s="15" t="s">
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="16">
-        <v>1</v>
-      </c>
-      <c r="C8" s="16" t="s">
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="15">
+        <v>1</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="16">
-        <v>2</v>
-      </c>
-      <c r="C9" s="16" t="s">
+    <row r="9" spans="1:7">
+      <c r="B9" s="15">
+        <v>2</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C12" s="13" t="s">
+    <row r="12" spans="1:7">
+      <c r="C12" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C13" s="15" t="s">
+    <row r="13" spans="1:7">
+      <c r="C13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C14" s="15" t="s">
+      <c r="D13" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="C14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C15" s="15" t="s">
+    <row r="15" spans="1:7">
+      <c r="C15" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C16" s="16">
-        <v>1</v>
-      </c>
-      <c r="D16" s="16" t="s">
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="C16" s="15">
+        <v>1</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C17" s="16">
-        <v>2</v>
-      </c>
-      <c r="D17" s="16" t="s">
+    <row r="17" spans="3:7">
+      <c r="C17" s="15">
+        <v>2</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C18" s="16">
+    <row r="18" spans="3:7">
+      <c r="C18" s="15">
         <v>3</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="18" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2234,4 +2388,148 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EBB7C2-2C3D-4E5C-A5A3-D501A0527030}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>36617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>36618</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3">
+        <v>36251</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3">
+        <v>36252</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3">
+        <v>36253</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/test/data/anno_IterateTables.xlsx
+++ b/src/test/data/anno_IterateTables.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F83A27B-5AC5-4983-82B0-DE26A47136E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFDFF6D-0D2D-46FF-8875-6DBA1426D5D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34740" yWindow="2145" windowWidth="21615" windowHeight="11655" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35640" yWindow="2715" windowWidth="20775" windowHeight="11835" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="通常の表" sheetId="1" r:id="rId1"/>
@@ -17,15 +17,9 @@
     <sheet name="正規表現で一致" sheetId="6" r:id="rId7"/>
     <sheet name="配列カラムの設定" sheetId="7" r:id="rId8"/>
     <sheet name="コメント情報" sheetId="11" r:id="rId9"/>
+    <sheet name="メソッドが存在しない" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -130,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="44">
   <si>
     <t>アノテーション「@XlsIterateTables」のテスタ</t>
     <phoneticPr fontId="2"/>
@@ -434,6 +428,19 @@
     <t>3組</t>
     <rPh sb="1" eb="2">
       <t>クミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>対応するアクセッサメソッドが存在しないときのテスト</t>
+  </si>
+  <si>
+    <t>通常の表</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1052,7 +1059,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A4" sqref="A4:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1182,6 +1189,74 @@
       </c>
       <c r="D18" s="3">
         <v>36253</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD3B2D2-BD62-4888-BEF0-A62224FC25ED}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2394,9 +2469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EBB7C2-2C3D-4E5C-A5A3-D501A0527030}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2530,6 +2603,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>